--- a/biology/Zoologie/Gerrothorax/Gerrothorax.xlsx
+++ b/biology/Zoologie/Gerrothorax/Gerrothorax.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gerrothorax (« coffre en osier ») est un  genre éteint de temnospondyles, des amphibiens de la période du Trias au Groenland, en Allemagne, en Suède, et peut-être en Thaïlande. Il est connu d'une seule espèce, G. pulcherrimus, bien que plusieurs autres espèces telles que G. pustuloglomeratus aient été nommées dans le passé.
-Gerrothorax mesurait environ 1 mètre de long et avait un corps remarquablement aplati. Il se cachait probablement sous le sable ou la boue sur les fonds des rivières et des lacs, scrutant les proies avec ses grands yeux tournés vers le haut. Gerrothorax avait un crâne de forme inhabituelle avec des protubérances angulaires sur les côtés. Cela ressemblait vaguement au crâne de Diplocaulus, un amphibien plus ancien et non apparenté, mais qui n'était pas aussi développé[2].
+Gerrothorax mesurait environ 1 mètre de long et avait un corps remarquablement aplati. Il se cachait probablement sous le sable ou la boue sur les fonds des rivières et des lacs, scrutant les proies avec ses grands yeux tournés vers le haut. Gerrothorax avait un crâne de forme inhabituelle avec des protubérances angulaires sur les côtés. Cela ressemblait vaguement au crâne de Diplocaulus, un amphibien plus ancien et non apparenté, mais qui n'était pas aussi développé.
 </t>
         </is>
       </c>
@@ -512,12 +524,14 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (2 juillet 2018)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (2 juillet 2018) :
 Gerrothorax pulcherrimus (Fraas, 1913) †
 Gerrothorax rhaeticus Nilsson, 1937 †
-Selon Paleobiology Database                   (2 juillet 2018)[1] :
+Selon Paleobiology Database                   (2 juillet 2018) :
 Gerrothorax pulcherrimus</t>
         </is>
       </c>
